--- a/Day by Day Work.xlsx
+++ b/Day by Day Work.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Day</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>Implementaion Discussion</t>
+  </si>
+  <si>
+    <t>Design Document</t>
+  </si>
+  <si>
+    <t>Project Structure and (Dev Started)</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -410,87 +416,84 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>42672</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+        <v>42673</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>42673</v>
+        <v>42674</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>42674</v>
+        <v>42675</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>42675</v>
+        <v>42676</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>42676</v>
+        <v>42677</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>42677</v>
+        <v>42678</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>42678</v>
+        <v>42679</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>42679</v>
+        <v>42680</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>42680</v>
+        <v>42681</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>42681</v>
+        <v>42682</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>42682</v>
+        <v>42683</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>42683</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
